--- a/2021/Others/Price List.xlsx
+++ b/2021/Others/Price List.xlsx
@@ -1752,7 +1752,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1964,9 +1964,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1982,12 +1979,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2000,7 +1991,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2012,7 +2003,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2027,14 +2018,20 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2042,11 +2039,14 @@
     <xf numFmtId="1" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2086,7 +2086,7 @@
         <xdr:cNvPr id="17" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2107,7 @@
           <xdr:cNvPr id="18" name="Freeform 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2313,7 +2313,7 @@
           <xdr:cNvPr id="19" name="Freeform 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3414,7 +3414,7 @@
           <xdr:cNvPr id="20" name="Freeform 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3861,7 +3861,7 @@
           <xdr:cNvPr id="21" name="Freeform 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3921,7 +3921,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3938,7 +3938,7 @@
           <xdr:cNvPr id="22" name="Freeform 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4001,7 +4001,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4018,7 +4018,7 @@
           <xdr:cNvPr id="23" name="Freeform 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4078,7 +4078,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4387,1636 +4387,1636 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="3.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15" style="8" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="15.75">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="15.75">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="17.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="17.25">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>6610.7</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>6595</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>6780</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>7290</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="18" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <f>((D6*0.0025)+D6)</f>
         <v>798.99249999999995</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>797</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>820</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>880</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>44212</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <f>((D7*0.0025)+D7)</f>
         <v>809.01750000000004</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>807</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>830</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>890</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>44212</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <f t="shared" ref="C8:C9" si="0">((D8*0.0025)+D8)</f>
         <v>819.04250000000002</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>817</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>840</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <v>899</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <v>44212</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>945.35749999999996</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>943</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>970</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <v>1040</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <v>44212</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>916.28499999999997</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>914</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>935</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <v>1010</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <v>44131</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <f>((D11*0.0025)+D11)</f>
         <v>862.15</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>860</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>885</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <v>950</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <v>44212</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <f t="shared" ref="C12:C13" si="1">((D12*0.0025)+D12)</f>
         <v>1062.6500000000001</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>1060</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>1090</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>1160</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <v>44212</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="18" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="17.25">
-      <c r="A13" s="21">
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="17.25">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <f t="shared" si="1"/>
         <v>1042.5999999999999</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>1040</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>1070</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <v>1150</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <v>44212</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>1296.08</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>1293</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>1330</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>1430</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <v>44212</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="17.25">
-      <c r="A15" s="21">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:10" s="11" customFormat="1" ht="17.25">
+      <c r="A15" s="18">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <f t="shared" ref="C15" si="2">((D15*0.0025)+D15)</f>
         <v>994.48</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <v>992</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>1020</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <v>1090</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="23">
         <v>44222</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>999.49249999999995</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>997</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>1025</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="21">
         <v>1099</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>1014.53</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>1012</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>1040</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <v>1120</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="22">
         <v>44132</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="18" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>3947.38</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="20">
         <v>3938</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>4050</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <v>4290</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="21" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="18" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>4044.61</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="20">
         <v>4035</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>4150</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <v>4390</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="21" t="s">
+      <c r="G19" s="22"/>
+      <c r="H19" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="18" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>5046.9880999999996</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="20">
         <v>5035</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>5170</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="21">
         <v>5499</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="21" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="18" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>4866.5595000000003</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>4855</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>4990</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <v>5290</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="18" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>5427.89</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="16">
         <v>5415</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <v>5570</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>5990</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="21" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="18" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <v>5793.4475000000002</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="20">
         <v>5779</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>5940</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <v>6390</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="21" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="18" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>5382.7857000000004</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="20">
         <v>5370</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>5510</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="21">
         <v>5890</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="22">
         <v>43914</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="18" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>6306.9809523809527</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>6292</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>6470</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="21">
         <v>6990</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="22">
         <v>43849</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="18" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>5708.5595000000003</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <v>5695</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>5855</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="21">
         <v>6295</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="21" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="18" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>6405.2142857142853</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="20">
         <v>6390</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <v>6570</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="21">
         <v>6990</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="21" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="18" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.25">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <v>1004.3857</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="20">
         <v>1002</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="21">
         <v>1030</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="21">
         <v>1110</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="22">
         <v>44126</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.25">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <f t="shared" ref="C29:C30" si="3">((D29*0.0025)+D29)</f>
         <v>1062.6500000000001</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="20">
         <v>1060</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <v>1090</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="21">
         <v>1170</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="22">
         <v>44212</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <f t="shared" si="3"/>
         <v>1062.6500000000001</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="20">
         <v>1060</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="21">
         <v>1090</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="21">
         <v>1160</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="22">
         <v>44212</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <f>((D31*0.0025)+D31)</f>
         <v>1150.8699999999999</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="20">
         <v>1148</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="21">
         <v>1180</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="21">
         <v>1250</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="22">
         <v>44212</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.25">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <v>1062.6500000000001</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="20">
         <v>1060</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="21">
         <v>1090</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="21">
         <v>1180</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="22">
         <v>44133</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="18" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <v>1120.6600000000001</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="20">
         <v>1118</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <v>1150</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="21">
         <v>1230</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="21" t="s">
+      <c r="G33" s="22"/>
+      <c r="H33" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <v>1150.8699999999999</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="20">
         <v>1148</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="21">
         <v>1180</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="21">
         <v>1270</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="22">
         <v>44133</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="18" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <v>1227.9167</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="20">
         <v>1225</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="21">
         <v>1260</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="21">
         <v>1350</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="21" t="s">
+      <c r="G35" s="22"/>
+      <c r="H35" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>1140.845</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="20">
         <v>1138</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="21">
         <v>1170</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="21">
         <v>1250</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="21" t="s">
+      <c r="G36" s="22"/>
+      <c r="H36" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="20">
         <v>1188.9649999999999</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="20">
         <v>1186</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="21">
         <v>1220</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="21">
         <v>1320</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="21" t="s">
+      <c r="G37" s="22"/>
+      <c r="H37" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="18" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>3257.1224999999999</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="20">
         <v>3249</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="21">
         <v>3340</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="21">
         <v>3590</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="22">
         <v>43520</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="18" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>42</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="20">
         <v>3618.0225</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="20">
         <v>3609</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="21">
         <v>3710</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="21">
         <v>3990</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="21" t="s">
+      <c r="G39" s="22"/>
+      <c r="H39" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="18" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>43</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="20">
         <v>3548.43</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="20">
         <v>3540</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="21">
         <v>3640</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="21">
         <v>3890</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="22"/>
+      <c r="H40" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="18" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.25">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <v>44</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="20">
         <v>3520.78</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="20">
         <v>3512</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="21">
         <v>3610</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="21">
         <v>3890</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="22"/>
+      <c r="H41" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="18" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <v>45</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="20">
         <v>3793.46</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="20">
         <v>3784</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="21">
         <v>3890</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="21">
         <v>4190</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="J42" s="21" t="s">
+      <c r="J42" s="18" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.25">
-      <c r="A43" s="21">
+      <c r="A43" s="18">
         <v>49</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="20">
         <v>4076.6833000000001</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="20">
         <v>4067</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="21">
         <v>4180</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="21">
         <v>4490</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="22">
         <v>43856</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="J43" s="18" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.25">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <v>51</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="20">
         <v>7165.87</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="20">
         <v>7148</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="21">
         <v>7350</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="21">
         <v>7990</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="21" t="s">
+      <c r="G44" s="22"/>
+      <c r="H44" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="18" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>52</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="20">
         <v>7692.1824999999999</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="20">
         <v>7673</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="21">
         <v>7890</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="21">
         <v>8490</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="22">
         <v>43760</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="18" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25">
-      <c r="A46" s="21">
+      <c r="A46" s="18">
         <v>53</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>7593.0357000000004</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="20">
         <v>7575</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="21">
         <v>7790</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="21">
         <v>8290</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="21" t="s">
+      <c r="G46" s="22"/>
+      <c r="H46" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="J46" s="21" t="s">
+      <c r="J46" s="18" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.25">
-      <c r="A47" s="21">
+      <c r="A47" s="18">
         <v>54</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>8102.2049999999999</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="20">
         <v>8082</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="21">
         <v>8310</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="21">
         <v>8990</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="21" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="18" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.25">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>55</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>9066.5400000000009</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="20">
         <v>9045</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="21">
         <v>9300</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="21">
         <v>9790</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="21" t="s">
+      <c r="G48" s="22"/>
+      <c r="H48" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="J48" s="21" t="s">
+      <c r="J48" s="18" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <v>56</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="20">
         <v>9873.4524000000001</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="20">
         <v>9850</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="21">
         <v>10130</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="21">
         <v>10890</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="21" t="s">
+      <c r="G49" s="22"/>
+      <c r="H49" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="J49" s="21" t="s">
+      <c r="J49" s="18" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25">
-      <c r="A50" s="21">
+      <c r="A50" s="18">
         <v>57</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>7603.0595000000003</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="20">
         <v>7585</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="21">
         <v>7800</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="21">
         <v>8390</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="22">
         <v>44116</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="J50" s="21" t="s">
+      <c r="J50" s="18" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25">
-      <c r="A51" s="21">
+      <c r="A51" s="18">
         <v>58</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>7778.4762000000001</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="20">
         <v>7760</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="21">
         <v>7980</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="21">
         <v>8490</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="22">
         <v>44173</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="J51" s="21" t="s">
+      <c r="J51" s="18" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17.25">
-      <c r="A52" s="21">
+      <c r="A52" s="18">
         <v>59</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="20">
         <v>10133.069</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="20">
         <v>10109</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="21">
         <v>10340</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="21">
         <v>10990</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="21" t="s">
+      <c r="G52" s="22"/>
+      <c r="H52" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="J52" s="21" t="s">
+      <c r="J52" s="18" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="30"/>
-      <c r="B53" s="32">
+      <c r="A53" s="26"/>
+      <c r="B53" s="31">
         <v>8801312116768</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="35" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="29" t="s">
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="J53" s="29"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="1:10" ht="15.75">
-      <c r="A54" s="31"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="E53:H54"/>
     <mergeCell ref="I53:J54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
@@ -6049,22 +6049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
